--- a/Plotting/0.8.0/RationalResourcesParts.xlsx
+++ b/Plotting/0.8.0/RationalResourcesParts.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCBC4AF-5F77-451E-AD2C-C8E055DB64F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0F233-2395-4A3F-82E2-1367E87A7C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1764" windowWidth="15228" windowHeight="11196"/>
+    <workbookView xWindow="2928" yWindow="612" windowWidth="15228" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RationalResourcesParts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,19 +105,19 @@
     <t>solids</t>
   </si>
   <si>
-    <t>spaceplanes</t>
-  </si>
-  <si>
     <t>ion</t>
   </si>
   <si>
-    <t>ntr</t>
+    <t>aerodynamics</t>
+  </si>
+  <si>
+    <t>reactors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,13 +980,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -985,75 +996,93 @@
 {
 	@TechRequired = "&amp;B2&amp;C2&amp;"
 }"</f>
-        <v>@PART[rr.boxblue]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = isru9
+        <v>@PART[RREngineNTJ1]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = aerodynamics11
 }</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
+        <f>"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
 {
 	@TechRequired = "&amp;B3&amp;C3&amp;"
 }"</f>
-        <v>@PART[rr.boxblue.flat]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = isru
+        <v>@PART[RRRCSLinearCold]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = control9
 }</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[rr.boxblue.long]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = isru
+        <f>"@PART["&amp;A4&amp;"]:AFTER["&amp;D4&amp;"] //
+{
+	@TechRequired = "&amp;B4&amp;C4&amp;"
+}"</f>
+        <v>@PART[RRRCSQuadCold]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = control9
 }</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[rr.boxred.flat]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = isru
+        <f>"@PART["&amp;A5&amp;"]:AFTER["&amp;D5&amp;"] //
+{
+	@TechRequired = "&amp;B5&amp;C5&amp;"
+}"</f>
+        <v>@PART[RREngineMAPT0]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = ion10
 }</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1063,18 +1092,21 @@
 {
 	@TechRequired = "&amp;B6&amp;C6&amp;"
 }"</f>
-        <v>@PART[RREngineMAPT0]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = ion
+        <v>@PART[RREngineMET]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = ion10
 }</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1084,18 +1116,21 @@
 {
 	@TechRequired = "&amp;B7&amp;C7&amp;"
 }"</f>
-        <v>@PART[RREngineMET]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = ion
+        <v>@PART[rr.boxblue]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = isru9
 }</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1105,21 +1140,21 @@
 {
 	@TechRequired = "&amp;B8&amp;C8&amp;"
 }"</f>
-        <v>@PART[RREngineNTJ1]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = spaceplanes
+        <v>@PART[rr.boxblue.flat]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = isru9
 }</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1129,21 +1164,21 @@
 {
 	@TechRequired = "&amp;B9&amp;C9&amp;"
 }"</f>
-        <v>@PART[RREngineNERVA-R]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = ntr8
+        <v>@PART[rr.boxred.flat]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = isru9
 }</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1153,18 +1188,21 @@
 {
 	@TechRequired = "&amp;B10&amp;C10&amp;"
 }"</f>
-        <v>@PART[RREngineNERVA-O]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = ntr8
+        <v>@PART[rr.boxblue.long]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = isru10
 }</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1174,18 +1212,21 @@
 {
 	@TechRequired = "&amp;B11&amp;C11&amp;"
 }"</f>
-        <v>@PART[RREngineSFRJ]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = solids
+        <v>@PART[rr.exoscoop]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = isru10
 }</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1195,18 +1236,21 @@
 {
 	@TechRequired = "&amp;B12&amp;C12&amp;"
 }"</f>
-        <v>@PART[RREngineSRB.RT05]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = solids
+        <v>@PART[rr.hydroscoop.temp]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = isru10
 }</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1216,18 +1260,21 @@
 {
 	@TechRequired = "&amp;B13&amp;C13&amp;"
 }"</f>
-        <v>@PART[RREngineSRB.RT10]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = solids
+        <v>@PART[RREngineNERVA-R]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = reactors8
 }</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1237,18 +1284,21 @@
 {
 	@TechRequired = "&amp;B14&amp;C14&amp;"
 }"</f>
-        <v>@PART[rr.exoscoop]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = isru
+        <v>@PART[RREngineNERVA-O]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = reactors8
 }</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1258,18 +1308,21 @@
 {
 	@TechRequired = "&amp;B15&amp;C15&amp;"
 }"</f>
-        <v>@PART[rr.hydroscoop.temp]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = isru
+        <v>@PART[RREngineSRB.RT05]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = solids9
 }</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1279,18 +1332,21 @@
 {
 	@TechRequired = "&amp;B16&amp;C16&amp;"
 }"</f>
-        <v>@PART[RRRCSLinearCold]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = control
+        <v>@PART[RREngineSFRJ]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = solids10
 }</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1300,13 +1356,17 @@
 {
 	@TechRequired = "&amp;B17&amp;C17&amp;"
 }"</f>
-        <v>@PART[RRRCSQuadCold]:AFTER[RationalResourcesParts] //
-{
-	@TechRequired = control
+        <v>@PART[RREngineSRB.RT10]:AFTER[RationalResourcesParts] //
+{
+	@TechRequired = solids10
 }</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition ref="B2:B17"/>
+    <sortCondition ref="C2:C17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>